--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>GOL</t>
   </si>
@@ -124,6 +124,48 @@
   </si>
   <si>
     <t>COMPETIÇÃO</t>
+  </si>
+  <si>
+    <t>COPA</t>
+  </si>
+  <si>
+    <t>Léo Cardoso</t>
+  </si>
+  <si>
+    <t>VERMELHO</t>
+  </si>
+  <si>
+    <t>Lucas Marques</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>Lotta</t>
+  </si>
+  <si>
+    <t>Feitosa</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>BRANCO</t>
+  </si>
+  <si>
+    <t>Paulo Rafael</t>
+  </si>
+  <si>
+    <t>Diego Maradona</t>
+  </si>
+  <si>
+    <t>Glerme</t>
+  </si>
+  <si>
+    <t>João Victor</t>
+  </si>
+  <si>
+    <t>Marcello</t>
   </si>
 </sst>
 </file>
@@ -523,8 +565,8 @@
   <dimension ref="A1:W847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,13 +652,27 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -632,15 +688,32 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -656,15 +729,32 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -680,15 +770,32 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -704,15 +811,32 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -728,15 +852,32 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -752,15 +893,32 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -776,15 +934,32 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -800,15 +975,32 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -824,15 +1016,32 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -848,15 +1057,32 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -872,6 +1098,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
